--- a/COMPASS_pred/11111.xlsx
+++ b/COMPASS_pred/11111.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/barryp/work/JAM/fitpack2/database/dy-pion/expdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/barryp/work/JAM/workspace/misc/COMPASS_pred/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A12B38EF-CE15-6F49-ADCD-DE91F21996F6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FAFA7DA-4FED-A34E-8FA0-7C869D6B3718}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3080" yWindow="5200" windowWidth="26840" windowHeight="15940" xr2:uid="{493E7EA6-4991-EB43-A226-B04B72119B24}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -69,16 +69,16 @@
     <t>W</t>
   </si>
   <si>
-    <t>M^3 dsig/drs/dxF/drtau</t>
-  </si>
-  <si>
     <t>pi_minus</t>
   </si>
   <si>
-    <t>GeV^2 nb</t>
+    <t>COMPASS</t>
   </si>
   <si>
-    <t>COMPASS</t>
+    <t>dsig/drtau/dxF</t>
+  </si>
+  <si>
+    <t>nb</t>
   </si>
 </sst>
 </file>
@@ -449,12 +449,12 @@
   <dimension ref="A1:M67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="I58" sqref="I58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
@@ -515,16 +515,16 @@
         <v>-0.1</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
         <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -536,7 +536,7 @@
         <v>1</v>
       </c>
       <c r="M2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -556,16 +556,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
         <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -577,7 +577,7 @@
         <v>1</v>
       </c>
       <c r="M3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -597,16 +597,16 @@
         <v>0.1</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G4" t="s">
         <v>13</v>
       </c>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -618,7 +618,7 @@
         <v>1</v>
       </c>
       <c r="M4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -638,16 +638,16 @@
         <v>0.2</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G5" t="s">
         <v>13</v>
       </c>
       <c r="H5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -659,7 +659,7 @@
         <v>1</v>
       </c>
       <c r="M5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -679,16 +679,16 @@
         <v>0.3</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G6" t="s">
         <v>13</v>
       </c>
       <c r="H6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -700,7 +700,7 @@
         <v>1</v>
       </c>
       <c r="M6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -720,16 +720,16 @@
         <v>0.4</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G7" t="s">
         <v>13</v>
       </c>
       <c r="H7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -741,7 +741,7 @@
         <v>1</v>
       </c>
       <c r="M7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -761,16 +761,16 @@
         <v>0.5</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G8" t="s">
         <v>13</v>
       </c>
       <c r="H8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J8">
         <v>1</v>
@@ -782,7 +782,7 @@
         <v>1</v>
       </c>
       <c r="M8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -802,16 +802,16 @@
         <v>0.6</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G9" t="s">
         <v>13</v>
       </c>
       <c r="H9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -823,7 +823,7 @@
         <v>1</v>
       </c>
       <c r="M9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
@@ -843,16 +843,16 @@
         <v>0.7</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G10" t="s">
         <v>13</v>
       </c>
       <c r="H10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -864,7 +864,7 @@
         <v>1</v>
       </c>
       <c r="M10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -884,16 +884,16 @@
         <v>0.8</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G11" t="s">
         <v>13</v>
       </c>
       <c r="H11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -905,7 +905,7 @@
         <v>1</v>
       </c>
       <c r="M11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
@@ -925,16 +925,16 @@
         <v>0.9</v>
       </c>
       <c r="F12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G12" t="s">
         <v>13</v>
       </c>
       <c r="H12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J12">
         <v>1</v>
@@ -946,7 +946,7 @@
         <v>1</v>
       </c>
       <c r="M12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
@@ -966,16 +966,16 @@
         <v>-0.1</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G13" t="s">
         <v>13</v>
       </c>
       <c r="H13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J13">
         <v>1</v>
@@ -987,7 +987,7 @@
         <v>1</v>
       </c>
       <c r="M13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
@@ -1007,16 +1007,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G14" t="s">
         <v>13</v>
       </c>
       <c r="H14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J14">
         <v>1</v>
@@ -1028,7 +1028,7 @@
         <v>1</v>
       </c>
       <c r="M14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
@@ -1048,16 +1048,16 @@
         <v>0.1</v>
       </c>
       <c r="F15" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G15" t="s">
         <v>13</v>
       </c>
       <c r="H15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J15">
         <v>1</v>
@@ -1069,7 +1069,7 @@
         <v>1</v>
       </c>
       <c r="M15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
@@ -1089,16 +1089,16 @@
         <v>0.2</v>
       </c>
       <c r="F16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G16" t="s">
         <v>13</v>
       </c>
       <c r="H16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J16">
         <v>1</v>
@@ -1110,7 +1110,7 @@
         <v>1</v>
       </c>
       <c r="M16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
@@ -1130,16 +1130,16 @@
         <v>0.3</v>
       </c>
       <c r="F17" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G17" t="s">
         <v>13</v>
       </c>
       <c r="H17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J17">
         <v>1</v>
@@ -1151,7 +1151,7 @@
         <v>1</v>
       </c>
       <c r="M17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
@@ -1171,16 +1171,16 @@
         <v>0.4</v>
       </c>
       <c r="F18" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G18" t="s">
         <v>13</v>
       </c>
       <c r="H18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J18">
         <v>1</v>
@@ -1192,7 +1192,7 @@
         <v>1</v>
       </c>
       <c r="M18" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
@@ -1212,16 +1212,16 @@
         <v>0.5</v>
       </c>
       <c r="F19" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G19" t="s">
         <v>13</v>
       </c>
       <c r="H19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J19">
         <v>1</v>
@@ -1233,7 +1233,7 @@
         <v>1</v>
       </c>
       <c r="M19" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
@@ -1253,16 +1253,16 @@
         <v>0.6</v>
       </c>
       <c r="F20" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G20" t="s">
         <v>13</v>
       </c>
       <c r="H20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I20" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J20">
         <v>1</v>
@@ -1274,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="M20" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
@@ -1294,16 +1294,16 @@
         <v>0.7</v>
       </c>
       <c r="F21" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G21" t="s">
         <v>13</v>
       </c>
       <c r="H21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I21" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J21">
         <v>1</v>
@@ -1315,7 +1315,7 @@
         <v>1</v>
       </c>
       <c r="M21" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
@@ -1335,16 +1335,16 @@
         <v>0.8</v>
       </c>
       <c r="F22" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G22" t="s">
         <v>13</v>
       </c>
       <c r="H22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J22">
         <v>1</v>
@@ -1356,7 +1356,7 @@
         <v>1</v>
       </c>
       <c r="M22" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
@@ -1376,16 +1376,16 @@
         <v>0.9</v>
       </c>
       <c r="F23" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G23" t="s">
         <v>13</v>
       </c>
       <c r="H23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I23" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J23">
         <v>1</v>
@@ -1397,7 +1397,7 @@
         <v>1</v>
       </c>
       <c r="M23" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
@@ -1417,16 +1417,16 @@
         <v>-0.1</v>
       </c>
       <c r="F24" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G24" t="s">
         <v>13</v>
       </c>
       <c r="H24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I24" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J24">
         <v>1</v>
@@ -1438,7 +1438,7 @@
         <v>1</v>
       </c>
       <c r="M24" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
@@ -1458,16 +1458,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G25" t="s">
         <v>13</v>
       </c>
       <c r="H25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I25" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J25">
         <v>1</v>
@@ -1479,7 +1479,7 @@
         <v>1</v>
       </c>
       <c r="M25" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
@@ -1499,16 +1499,16 @@
         <v>0.1</v>
       </c>
       <c r="F26" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G26" t="s">
         <v>13</v>
       </c>
       <c r="H26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I26" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J26">
         <v>1</v>
@@ -1520,7 +1520,7 @@
         <v>1</v>
       </c>
       <c r="M26" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
@@ -1540,16 +1540,16 @@
         <v>0.2</v>
       </c>
       <c r="F27" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G27" t="s">
         <v>13</v>
       </c>
       <c r="H27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I27" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J27">
         <v>1</v>
@@ -1561,7 +1561,7 @@
         <v>1</v>
       </c>
       <c r="M27" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
@@ -1581,16 +1581,16 @@
         <v>0.3</v>
       </c>
       <c r="F28" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G28" t="s">
         <v>13</v>
       </c>
       <c r="H28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I28" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J28">
         <v>1</v>
@@ -1602,7 +1602,7 @@
         <v>1</v>
       </c>
       <c r="M28" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
@@ -1622,16 +1622,16 @@
         <v>0.4</v>
       </c>
       <c r="F29" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G29" t="s">
         <v>13</v>
       </c>
       <c r="H29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I29" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J29">
         <v>1</v>
@@ -1643,7 +1643,7 @@
         <v>1</v>
       </c>
       <c r="M29" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
@@ -1663,16 +1663,16 @@
         <v>0.5</v>
       </c>
       <c r="F30" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G30" t="s">
         <v>13</v>
       </c>
       <c r="H30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I30" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J30">
         <v>1</v>
@@ -1684,7 +1684,7 @@
         <v>1</v>
       </c>
       <c r="M30" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
@@ -1704,16 +1704,16 @@
         <v>0.6</v>
       </c>
       <c r="F31" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G31" t="s">
         <v>13</v>
       </c>
       <c r="H31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I31" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J31">
         <v>1</v>
@@ -1725,7 +1725,7 @@
         <v>1</v>
       </c>
       <c r="M31" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
@@ -1745,16 +1745,16 @@
         <v>0.7</v>
       </c>
       <c r="F32" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G32" t="s">
         <v>13</v>
       </c>
       <c r="H32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I32" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J32">
         <v>1</v>
@@ -1766,7 +1766,7 @@
         <v>1</v>
       </c>
       <c r="M32" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
@@ -1786,16 +1786,16 @@
         <v>0.8</v>
       </c>
       <c r="F33" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G33" t="s">
         <v>13</v>
       </c>
       <c r="H33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I33" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J33">
         <v>1</v>
@@ -1807,7 +1807,7 @@
         <v>1</v>
       </c>
       <c r="M33" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
@@ -1827,16 +1827,16 @@
         <v>0.9</v>
       </c>
       <c r="F34" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G34" t="s">
         <v>13</v>
       </c>
       <c r="H34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I34" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J34">
         <v>1</v>
@@ -1848,7 +1848,7 @@
         <v>1</v>
       </c>
       <c r="M34" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
@@ -1868,16 +1868,16 @@
         <v>-0.1</v>
       </c>
       <c r="F35" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G35" t="s">
         <v>13</v>
       </c>
       <c r="H35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I35" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J35">
         <v>1</v>
@@ -1889,7 +1889,7 @@
         <v>1</v>
       </c>
       <c r="M35" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
@@ -1909,16 +1909,16 @@
         <v>0</v>
       </c>
       <c r="F36" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G36" t="s">
         <v>13</v>
       </c>
       <c r="H36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I36" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J36">
         <v>1</v>
@@ -1930,7 +1930,7 @@
         <v>1</v>
       </c>
       <c r="M36" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
@@ -1950,16 +1950,16 @@
         <v>0.1</v>
       </c>
       <c r="F37" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G37" t="s">
         <v>13</v>
       </c>
       <c r="H37" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I37" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J37">
         <v>1</v>
@@ -1971,7 +1971,7 @@
         <v>1</v>
       </c>
       <c r="M37" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
@@ -1991,16 +1991,16 @@
         <v>0.2</v>
       </c>
       <c r="F38" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G38" t="s">
         <v>13</v>
       </c>
       <c r="H38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I38" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J38">
         <v>1</v>
@@ -2012,7 +2012,7 @@
         <v>1</v>
       </c>
       <c r="M38" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
@@ -2032,16 +2032,16 @@
         <v>0.3</v>
       </c>
       <c r="F39" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G39" t="s">
         <v>13</v>
       </c>
       <c r="H39" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I39" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J39">
         <v>1</v>
@@ -2053,7 +2053,7 @@
         <v>1</v>
       </c>
       <c r="M39" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
@@ -2073,16 +2073,16 @@
         <v>0.4</v>
       </c>
       <c r="F40" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G40" t="s">
         <v>13</v>
       </c>
       <c r="H40" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I40" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J40">
         <v>1</v>
@@ -2094,7 +2094,7 @@
         <v>1</v>
       </c>
       <c r="M40" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
@@ -2114,16 +2114,16 @@
         <v>0.5</v>
       </c>
       <c r="F41" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G41" t="s">
         <v>13</v>
       </c>
       <c r="H41" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I41" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J41">
         <v>1</v>
@@ -2135,7 +2135,7 @@
         <v>1</v>
       </c>
       <c r="M41" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
@@ -2155,16 +2155,16 @@
         <v>0.6</v>
       </c>
       <c r="F42" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G42" t="s">
         <v>13</v>
       </c>
       <c r="H42" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I42" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J42">
         <v>1</v>
@@ -2176,7 +2176,7 @@
         <v>1</v>
       </c>
       <c r="M42" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
@@ -2196,16 +2196,16 @@
         <v>0.7</v>
       </c>
       <c r="F43" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G43" t="s">
         <v>13</v>
       </c>
       <c r="H43" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I43" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J43">
         <v>1</v>
@@ -2217,7 +2217,7 @@
         <v>1</v>
       </c>
       <c r="M43" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
@@ -2237,16 +2237,16 @@
         <v>0.8</v>
       </c>
       <c r="F44" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G44" t="s">
         <v>13</v>
       </c>
       <c r="H44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I44" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J44">
         <v>1</v>
@@ -2258,7 +2258,7 @@
         <v>1</v>
       </c>
       <c r="M44" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
@@ -2278,16 +2278,16 @@
         <v>0.9</v>
       </c>
       <c r="F45" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G45" t="s">
         <v>13</v>
       </c>
       <c r="H45" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I45" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J45">
         <v>1</v>
@@ -2299,7 +2299,7 @@
         <v>1</v>
       </c>
       <c r="M45" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
@@ -2319,16 +2319,16 @@
         <v>-0.1</v>
       </c>
       <c r="F46" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G46" t="s">
         <v>13</v>
       </c>
       <c r="H46" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I46" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J46">
         <v>1</v>
@@ -2340,7 +2340,7 @@
         <v>1</v>
       </c>
       <c r="M46" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
@@ -2360,16 +2360,16 @@
         <v>0</v>
       </c>
       <c r="F47" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G47" t="s">
         <v>13</v>
       </c>
       <c r="H47" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I47" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J47">
         <v>1</v>
@@ -2381,7 +2381,7 @@
         <v>1</v>
       </c>
       <c r="M47" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
@@ -2401,16 +2401,16 @@
         <v>0.1</v>
       </c>
       <c r="F48" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G48" t="s">
         <v>13</v>
       </c>
       <c r="H48" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I48" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J48">
         <v>1</v>
@@ -2422,7 +2422,7 @@
         <v>1</v>
       </c>
       <c r="M48" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
@@ -2442,16 +2442,16 @@
         <v>0.2</v>
       </c>
       <c r="F49" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G49" t="s">
         <v>13</v>
       </c>
       <c r="H49" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I49" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J49">
         <v>1</v>
@@ -2463,7 +2463,7 @@
         <v>1</v>
       </c>
       <c r="M49" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
@@ -2483,16 +2483,16 @@
         <v>0.3</v>
       </c>
       <c r="F50" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G50" t="s">
         <v>13</v>
       </c>
       <c r="H50" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I50" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J50">
         <v>1</v>
@@ -2504,7 +2504,7 @@
         <v>1</v>
       </c>
       <c r="M50" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
@@ -2524,16 +2524,16 @@
         <v>0.4</v>
       </c>
       <c r="F51" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G51" t="s">
         <v>13</v>
       </c>
       <c r="H51" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I51" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J51">
         <v>1</v>
@@ -2545,7 +2545,7 @@
         <v>1</v>
       </c>
       <c r="M51" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.2">
@@ -2565,16 +2565,16 @@
         <v>0.5</v>
       </c>
       <c r="F52" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G52" t="s">
         <v>13</v>
       </c>
       <c r="H52" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I52" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J52">
         <v>1</v>
@@ -2586,7 +2586,7 @@
         <v>1</v>
       </c>
       <c r="M52" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
@@ -2606,16 +2606,16 @@
         <v>0.6</v>
       </c>
       <c r="F53" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G53" t="s">
         <v>13</v>
       </c>
       <c r="H53" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I53" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J53">
         <v>1</v>
@@ -2627,7 +2627,7 @@
         <v>1</v>
       </c>
       <c r="M53" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.2">
@@ -2647,16 +2647,16 @@
         <v>0.7</v>
       </c>
       <c r="F54" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G54" t="s">
         <v>13</v>
       </c>
       <c r="H54" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I54" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J54">
         <v>1</v>
@@ -2668,7 +2668,7 @@
         <v>1</v>
       </c>
       <c r="M54" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.2">
@@ -2688,16 +2688,16 @@
         <v>0.8</v>
       </c>
       <c r="F55" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G55" t="s">
         <v>13</v>
       </c>
       <c r="H55" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I55" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J55">
         <v>1</v>
@@ -2709,7 +2709,7 @@
         <v>1</v>
       </c>
       <c r="M55" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.2">
@@ -2729,16 +2729,16 @@
         <v>0.9</v>
       </c>
       <c r="F56" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G56" t="s">
         <v>13</v>
       </c>
       <c r="H56" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I56" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J56">
         <v>1</v>
@@ -2750,7 +2750,7 @@
         <v>1</v>
       </c>
       <c r="M56" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.2">
@@ -2770,16 +2770,16 @@
         <v>-0.1</v>
       </c>
       <c r="F57" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G57" t="s">
         <v>13</v>
       </c>
       <c r="H57" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I57" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J57">
         <v>1</v>
@@ -2791,7 +2791,7 @@
         <v>1</v>
       </c>
       <c r="M57" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.2">
@@ -2811,16 +2811,16 @@
         <v>0</v>
       </c>
       <c r="F58" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G58" t="s">
         <v>13</v>
       </c>
       <c r="H58" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I58" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J58">
         <v>1</v>
@@ -2832,7 +2832,7 @@
         <v>1</v>
       </c>
       <c r="M58" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.2">
@@ -2852,16 +2852,16 @@
         <v>0.1</v>
       </c>
       <c r="F59" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G59" t="s">
         <v>13</v>
       </c>
       <c r="H59" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I59" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J59">
         <v>1</v>
@@ -2873,7 +2873,7 @@
         <v>1</v>
       </c>
       <c r="M59" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.2">
@@ -2893,16 +2893,16 @@
         <v>0.2</v>
       </c>
       <c r="F60" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G60" t="s">
         <v>13</v>
       </c>
       <c r="H60" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I60" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J60">
         <v>1</v>
@@ -2914,7 +2914,7 @@
         <v>1</v>
       </c>
       <c r="M60" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.2">
@@ -2934,16 +2934,16 @@
         <v>0.3</v>
       </c>
       <c r="F61" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G61" t="s">
         <v>13</v>
       </c>
       <c r="H61" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I61" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J61">
         <v>1</v>
@@ -2955,7 +2955,7 @@
         <v>1</v>
       </c>
       <c r="M61" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.2">
@@ -2975,16 +2975,16 @@
         <v>0.4</v>
       </c>
       <c r="F62" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G62" t="s">
         <v>13</v>
       </c>
       <c r="H62" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I62" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J62">
         <v>1</v>
@@ -2996,7 +2996,7 @@
         <v>1</v>
       </c>
       <c r="M62" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.2">
@@ -3016,16 +3016,16 @@
         <v>0.5</v>
       </c>
       <c r="F63" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G63" t="s">
         <v>13</v>
       </c>
       <c r="H63" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I63" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J63">
         <v>1</v>
@@ -3037,7 +3037,7 @@
         <v>1</v>
       </c>
       <c r="M63" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.2">
@@ -3057,16 +3057,16 @@
         <v>0.6</v>
       </c>
       <c r="F64" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G64" t="s">
         <v>13</v>
       </c>
       <c r="H64" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I64" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J64">
         <v>1</v>
@@ -3078,7 +3078,7 @@
         <v>1</v>
       </c>
       <c r="M64" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.2">
@@ -3098,16 +3098,16 @@
         <v>0.7</v>
       </c>
       <c r="F65" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G65" t="s">
         <v>13</v>
       </c>
       <c r="H65" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I65" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J65">
         <v>1</v>
@@ -3119,7 +3119,7 @@
         <v>1</v>
       </c>
       <c r="M65" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.2">
@@ -3139,16 +3139,16 @@
         <v>0.8</v>
       </c>
       <c r="F66" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G66" t="s">
         <v>13</v>
       </c>
       <c r="H66" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I66" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J66">
         <v>1</v>
@@ -3160,7 +3160,7 @@
         <v>1</v>
       </c>
       <c r="M66" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.2">
@@ -3180,16 +3180,16 @@
         <v>0.9</v>
       </c>
       <c r="F67" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G67" t="s">
         <v>13</v>
       </c>
       <c r="H67" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I67" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J67">
         <v>1</v>
@@ -3201,7 +3201,7 @@
         <v>1</v>
       </c>
       <c r="M67" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
